--- a/imageCreationExcel/back/darkyobi/darkyobi_0.xlsx
+++ b/imageCreationExcel/back/darkyobi/darkyobi_0.xlsx
@@ -510,8 +510,16 @@
       <c r="F2" t="n">
         <v>0.6873017623827742</v>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I2" t="n">
         <v>4</v>
       </c>
@@ -588,8 +596,16 @@
       <c r="F4" t="n">
         <v>0.9339132335233377</v>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
@@ -708,8 +724,16 @@
       <c r="F7" t="n">
         <v>0.3883909692943177</v>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
@@ -744,8 +768,16 @@
       <c r="F8" t="n">
         <v>0.8971175621172319</v>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I8" t="n">
         <v>2</v>
       </c>
@@ -822,8 +854,16 @@
       <c r="F10" t="n">
         <v>28.62991647791045</v>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
@@ -858,8 +898,16 @@
       <c r="F11" t="n">
         <v>0.8399262381854553</v>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
@@ -894,8 +942,16 @@
       <c r="F12" t="n">
         <v>20.15874073914275</v>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I12" t="n">
         <v>4</v>
       </c>
@@ -1014,8 +1070,16 @@
       <c r="F15" t="n">
         <v>0.2772761621064046</v>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
@@ -1092,8 +1156,16 @@
       <c r="F17" t="n">
         <v>0.643481707817951</v>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
@@ -1128,8 +1200,16 @@
       <c r="F18" t="n">
         <v>0.4571056534064026</v>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I18" t="n">
         <v>1</v>
       </c>
@@ -1206,8 +1286,16 @@
       <c r="F20" t="n">
         <v>0.8097532727839475</v>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I20" t="n">
         <v>2</v>
       </c>
@@ -1284,8 +1372,16 @@
       <c r="F22" t="n">
         <v>0.8298022635311901</v>
       </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
@@ -1320,8 +1416,16 @@
       <c r="F23" t="n">
         <v>1.188547076988381</v>
       </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
@@ -1356,8 +1460,16 @@
       <c r="F24" t="n">
         <v>9.405882219775364</v>
       </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
@@ -1434,8 +1546,16 @@
       <c r="F26" t="n">
         <v>0.7232578052569396</v>
       </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I26" t="n">
         <v>4</v>
       </c>
@@ -1512,8 +1632,16 @@
       <c r="F28" t="n">
         <v>6.610442493761364</v>
       </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
@@ -1548,8 +1676,16 @@
       <c r="F29" t="n">
         <v>22.49082474379329</v>
       </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I29" t="n">
         <v>4</v>
       </c>
@@ -1668,8 +1804,16 @@
       <c r="F32" t="n">
         <v>25.65940808153037</v>
       </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
@@ -1704,8 +1848,16 @@
       <c r="F33" t="n">
         <v>0.7391167143842028</v>
       </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I33" t="n">
         <v>4</v>
       </c>
@@ -1740,8 +1892,16 @@
       <c r="F34" t="n">
         <v>1.029799208198949</v>
       </c>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I34" t="n">
         <v>4</v>
       </c>
@@ -2028,8 +2188,16 @@
       <c r="F41" t="n">
         <v>16.11143884612317</v>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I41" t="n">
         <v>4</v>
       </c>
@@ -2106,8 +2274,16 @@
       <c r="F43" t="n">
         <v>3.814504434469025</v>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I43" t="n">
         <v>4</v>
       </c>
@@ -2142,8 +2318,16 @@
       <c r="F44" t="n">
         <v>0.7968867585331341</v>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
@@ -2178,8 +2362,16 @@
       <c r="F45" t="n">
         <v>0.8637320593805818</v>
       </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
@@ -2256,8 +2448,16 @@
       <c r="F47" t="n">
         <v>20.1616817542318</v>
       </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I47" t="n">
         <v>4</v>
       </c>
